--- a/lai_synthetic.xlsx
+++ b/lai_synthetic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CV\Code\MetricPyQt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\CV\low-level\deblur\MetricPyQt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38D31A-63E1-4847-B94F-FB3D1FB65DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507C027-80BA-4563-AD8E-BF4CC84BD862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SelfDeblur" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="109">
   <si>
     <t>File Name</t>
   </si>
@@ -348,14 +348,39 @@
     <t>text_05_kernel_04</t>
   </si>
   <si>
+    <t>manmade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +412,15 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -465,6 +499,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -745,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -757,7 +794,7 @@
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -778,8 +815,19 @@
       <c r="C2">
         <v>0.90823458472475183</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>19.351769214856837</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.52430216429634791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -789,8 +837,19 @@
       <c r="C3">
         <v>0.71889995164560816</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>20.85100127221946</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.51482302646097355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -800,8 +859,19 @@
       <c r="C4">
         <v>0.42972005934442697</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>24.803722010673575</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.71160405870307863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -811,8 +881,19 @@
       <c r="C5">
         <v>0.29328356486963553</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>17.531438955852771</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.58733779994228441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -822,8 +903,19 @@
       <c r="C6">
         <v>0.9220495394082765</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>19.796937318588537</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.64139875163289228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -833,8 +925,19 @@
       <c r="C7">
         <v>0.34416314905611289</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>20.466973754438239</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.59589316020711547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -845,7 +948,7 @@
         <v>0.46912730527162061</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -856,7 +959,7 @@
         <v>0.23889239847866969</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -867,7 +970,7 @@
         <v>0.81474175498068957</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -878,7 +981,7 @@
         <v>0.29735007011553249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -889,7 +992,7 @@
         <v>0.74897533798111215</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -900,7 +1003,7 @@
         <v>0.36426207843888531</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -911,7 +1014,7 @@
         <v>0.79979427337380649</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -922,7 +1025,7 @@
         <v>0.33098743027560451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1868,31 +1971,19 @@
         <v>0.32135857204051588</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>20.466973754438239</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.59589316020711547</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1901,7 +1992,7 @@
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2013,19 @@
       <c r="C2">
         <v>0.88253571138747655</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>26.243467524699106</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.83957070354427077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1933,8 +2035,19 @@
       <c r="C3">
         <v>0.90031120195268077</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>29.644373858024558</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.87712309969221669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1944,8 +2057,19 @@
       <c r="C4">
         <v>0.85204860140632743</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>33.241642864905927</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.91659163115202402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1955,8 +2079,19 @@
       <c r="C5">
         <v>0.88424179329665464</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>18.611256849653536</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.65172981164966282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1966,8 +2101,19 @@
       <c r="C6">
         <v>0.91775106814896212</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>30.358320725163544</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.93428428436975752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1977,8 +2123,19 @@
       <c r="C7">
         <v>0.92792105162973204</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>27.619812364489345</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.84385990608158645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1989,7 +2146,7 @@
         <v>0.88877516011818336</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2157,7 @@
         <v>0.86655832376421427</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2168,7 @@
         <v>0.85282364898435503</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2179,7 @@
         <v>0.6895098736306452</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2190,7 @@
         <v>0.70899939997454353</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2201,7 @@
         <v>0.71929065545203819</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2212,7 @@
         <v>0.85841852498233151</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2066,7 +2223,7 @@
         <v>0.90435424647511209</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3010,19 +3167,6 @@
       </c>
       <c r="C101">
         <v>0.84859889840620306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>27.619812364489345</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.84385990608158645</v>
       </c>
     </row>
   </sheetData>
@@ -3033,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3045,7 +3189,7 @@
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3210,19 @@
       <c r="C2">
         <v>0.91027054992580758</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>19.235137176526425</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.48808501039669566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3077,8 +3232,19 @@
       <c r="C3">
         <v>0.16937252584616619</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>21.938706639046639</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.5395998744348518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3088,8 +3254,19 @@
       <c r="C4">
         <v>0.47247588488146958</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>24.448612791645818</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.72832910378690163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3099,8 +3276,19 @@
       <c r="C5">
         <v>0.78307115867754262</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>15.772959941903903</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.55963056960103075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3110,8 +3298,19 @@
       <c r="C6">
         <v>0.49375661588751479</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>20.492918884318613</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.71670494181115196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3121,8 +3320,19 @@
       <c r="C7">
         <v>0.37043768808190569</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>20.377667086688277</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.60646990000612644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3133,7 +3343,7 @@
         <v>0.41914560128650102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3354,7 @@
         <v>0.3090034975525679</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3155,7 +3365,7 @@
         <v>0.88394391103486114</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3166,7 +3376,7 @@
         <v>0.74786637359410157</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3177,7 +3387,7 @@
         <v>0.2200022219102275</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3188,7 +3398,7 @@
         <v>0.16194106965616289</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3199,7 +3409,7 @@
         <v>0.79726701023862845</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3210,7 +3420,7 @@
         <v>0.55797403066085494</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4154,19 +4364,6 @@
       </c>
       <c r="C101">
         <v>0.30712803371959102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>20.377667086688277</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.60646990000612644</v>
       </c>
     </row>
   </sheetData>
@@ -4178,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4190,7 +4387,7 @@
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4201,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4211,8 +4408,19 @@
       <c r="C2">
         <v>0.87801634881490387</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>19.833987553226546</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.46250025245360693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4222,8 +4430,19 @@
       <c r="C3">
         <v>0.31754724279734459</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>23.946202775102059</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.62542938564536332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4233,8 +4452,19 @@
       <c r="C4">
         <v>0.20237754754253279</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>28.007919901983449</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.78486598065296576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4244,8 +4474,19 @@
       <c r="C5">
         <v>0.84642020298196363</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>16.267463614757702</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.50969980037052021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4255,8 +4496,19 @@
       <c r="C6">
         <v>0.4138835688433718</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>24.912026398523672</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.82814974284622489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4266,8 +4518,19 @@
       <c r="C7">
         <v>0.43418273591969703</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>22.593520048718673</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.6421290323937362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4278,7 +4541,7 @@
         <v>0.3779080801466001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4289,7 +4552,7 @@
         <v>0.4100969514436546</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4300,7 +4563,7 @@
         <v>0.2475948689944838</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4311,7 +4574,7 @@
         <v>0.2186811865590543</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4322,7 +4585,7 @@
         <v>0.25983793588299481</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4333,7 +4596,7 @@
         <v>0.26269902176709459</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4344,7 +4607,7 @@
         <v>0.86188479052610745</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4355,7 +4618,7 @@
         <v>0.46072170329094819</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5299,19 +5562,6 @@
       </c>
       <c r="C101">
         <v>0.88219766001654698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>22.593520048718673</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.6421290323937362</v>
       </c>
     </row>
   </sheetData>
@@ -5323,10 +5573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5335,7 +5585,7 @@
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5356,8 +5606,19 @@
       <c r="C2">
         <v>0.88522356050713724</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>21.031621849751652</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.61982945153661262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5367,8 +5628,19 @@
       <c r="C3">
         <v>0.82713947145081124</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>25.10091007445396</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.70113849993979527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5378,8 +5650,19 @@
       <c r="C4">
         <v>0.64593247708396795</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>26.460291613809733</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.80377546090721874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5389,8 +5672,19 @@
       <c r="C5">
         <v>0.82836444987917168</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>16.556766971941883</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.57756504478047765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5400,8 +5694,19 @@
       <c r="C6">
         <v>0.71703928226382707</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>23.760359715649344</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.83621925480586601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5411,8 +5716,19 @@
       <c r="C7">
         <v>0.36568729805875161</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>22.581990045121302</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.70770554239399386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5423,7 +5739,7 @@
         <v>0.14390638402919101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5434,7 +5750,7 @@
         <v>0.43315677273247438</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5445,7 +5761,7 @@
         <v>0.85751988719332672</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5456,7 +5772,7 @@
         <v>0.4671099673186051</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5467,7 +5783,7 @@
         <v>0.82772927750052705</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5478,7 +5794,7 @@
         <v>0.76742622046061437</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5489,7 +5805,7 @@
         <v>0.86209032502189531</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5500,7 +5816,7 @@
         <v>0.63327197028532967</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6444,19 +6760,6 @@
       </c>
       <c r="C101">
         <v>0.93196179404835389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>22.581990045121302</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.70770554239399386</v>
       </c>
     </row>
   </sheetData>
@@ -6467,10 +6770,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6479,7 +6782,7 @@
     <col min="2" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6500,8 +6803,19 @@
       <c r="C2">
         <v>0.86798242668630576</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>19.88708644169995</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.56909913655467415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6511,8 +6825,19 @@
       <c r="C3">
         <v>0.65517790181880409</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>24.09371371193788</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.67758433061689805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6522,8 +6847,19 @@
       <c r="C4">
         <v>0.1622801445414522</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>28.626883350563094</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.83330240610623763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6533,8 +6869,19 @@
       <c r="C5">
         <v>0.82592218829552433</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>16.655286191191898</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.58493692918509033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6544,8 +6891,19 @@
       <c r="C6">
         <v>0.84945707580181484</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>25.699438091862334</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.89556180985827571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6555,8 +6913,19 @@
       <c r="C7">
         <v>0.40984939360536637</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>22.992481557451033</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.71209692246423484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6567,7 +6936,7 @@
         <v>0.31302873385595842</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6578,7 +6947,7 @@
         <v>0.40415644990931843</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6589,7 +6958,7 @@
         <v>0.82983850007066773</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6600,7 +6969,7 @@
         <v>0.47985926773774379</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6611,7 +6980,7 @@
         <v>0.24563000687298439</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6622,7 +6991,7 @@
         <v>0.3927605247693341</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6633,7 +7002,7 @@
         <v>0.84166749941820196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6644,7 +7013,7 @@
         <v>0.73052009759861458</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7588,16 +7957,6 @@
       </c>
       <c r="C101">
         <v>0.89342609599584155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>22.992481557451033</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.71209692246423484</v>
       </c>
     </row>
   </sheetData>
@@ -7608,10 +7967,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C102" sqref="B102:C102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7620,7 +7979,7 @@
     <col min="2" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7631,7 +7990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7641,8 +8000,19 @@
       <c r="C2">
         <v>0.8639741616200024</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>19.626750520733655</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.57396968030579454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7652,8 +8022,19 @@
       <c r="C3">
         <v>0.7458435224456651</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(B22:B41)</f>
+        <v>23.482808515821805</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C22:C41)</f>
+        <v>0.63215732392054114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7663,8 +8044,19 @@
       <c r="C4">
         <v>0.26804082901232679</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B42:B61)</f>
+        <v>28.083099171781374</v>
+      </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C42:C61)</f>
+        <v>0.79407930386523895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7674,8 +8066,19 @@
       <c r="C5">
         <v>0.64673200343987636</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5">
+        <f>AVERAGE(B62:B81)</f>
+        <v>16.817215102092934</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C62:C81)</f>
+        <v>0.5824129385074388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7685,8 +8088,19 @@
       <c r="C6">
         <v>0.58233874747648262</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B82:B101)</f>
+        <v>26.086462726189399</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(C82:C101)</f>
+        <v>0.87073214542931121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7696,8 +8110,19 @@
       <c r="C7">
         <v>0.34465535120396479</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(B2:B101)</f>
+        <v>22.819267207323836</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.69067027840566464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7708,7 +8133,7 @@
         <v>0.32013627783917098</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7719,7 +8144,7 @@
         <v>0.51593069098547983</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7730,7 +8155,7 @@
         <v>0.84016479120580378</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7741,7 +8166,7 @@
         <v>0.14323847683651489</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +8177,7 @@
         <v>0.60472247278269331</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -7763,7 +8188,7 @@
         <v>0.57323961636268406</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -7774,7 +8199,7 @@
         <v>0.82830803106494588</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7785,7 +8210,7 @@
         <v>0.78041707624624157</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -8729,16 +9154,6 @@
       </c>
       <c r="C101">
         <v>0.87619772671052487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>22.819267207323836</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.69067027840566464</v>
       </c>
     </row>
   </sheetData>
